--- a/laravel-quiz/public/excel/cat-template.xlsx
+++ b/laravel-quiz/public/excel/cat-template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>User name</t>
   </si>
@@ -30,16 +30,10 @@
     <t>Category name</t>
   </si>
   <si>
-    <t>Počet Face-kategória-120-180 cm (úroveň očí)</t>
+    <t>Location</t>
   </si>
   <si>
-    <t>Počet Face kategória-(mimo úroveň očí)</t>
-  </si>
-  <si>
-    <t>Počet Face( druhotné vystavenie)</t>
-  </si>
-  <si>
-    <t>Druhotné vystavenie (krátkodobé, dlhodobé)</t>
+    <t>Počet Face-kategóry celkem</t>
   </si>
 </sst>
 </file>
@@ -397,44 +391,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
